--- a/문서/견적서/서버용 데스크탑 (그래픽 카드) 견적서.xlsx
+++ b/문서/견적서/서버용 데스크탑 (그래픽 카드) 견적서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>MSI 지포스 GTX1060 게이밍 X 플러스 D5 6GB 트윈프로져6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>인터파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,24 +192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -213,16 +199,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF13FE07-5A32-4BC3-B556-E89ECB3348DD}">
   <dimension ref="B6:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,28 +604,28 @@
   <sheetData>
     <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
@@ -632,70 +636,88 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="13"/>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="3">
         <v>441060</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="2">
         <v>2500</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="6">
         <v>3000</v>
       </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="6"/>
+      <c r="H18" s="2">
+        <f>SUM(C18:F18)</f>
+        <v>446560</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="3">
         <v>969000</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="2">
         <v>2500</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="6">
         <v>3000</v>
       </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="6"/>
+      <c r="H19" s="2">
+        <f>SUM(C19:F19)</f>
+        <v>974500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="3">
         <v>969000</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="2">
         <v>2500</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="6">
         <v>3000</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="2">
+        <f>SUM(C20:F20)</f>
+        <v>974500</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
